--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C2224-35F9-4BDE-8E04-31AE89E373D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864D542-4068-4FA0-998D-3DED99535115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -1229,8 +1229,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>195</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>195</v>
       </c>
@@ -1708,21 +1708,21 @@
         <v>11</v>
       </c>
       <c r="G14" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H14" s="13" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(F14="Daily", G14,F14="Weekly", G14/7,F14="Biweekly", G14/15,F14="Monthly", G14/30,F14="Quarterly", G14/90,F14="Yearly", G14/365,F14="Ad-hoc", G14/365)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J14" s="13" cm="1">
         <f t="array" ref="J14">_xlfn.IFS(F14="Daily", I14,F14="Weekly", I14/7,F14="Biweekly", I14/15,F14="Monthly", I14/30,F14="Quarterly", I14/90,F14="Yearly", I14/365,F14="Ad-hoc", I14/365)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>195</v>
       </c>
@@ -1742,18 +1742,18 @@
         <v>11</v>
       </c>
       <c r="G15" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="13" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(F15="Daily", G15,F15="Weekly", G15/7,F15="Biweekly", G15/15,F15="Monthly", G15/30,F15="Quarterly", G15/90,F15="Yearly", G15/365,F15="Ad-hoc", G15/365)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="13" cm="1">
         <f t="array" ref="J15">_xlfn.IFS(F15="Daily", I15,F15="Weekly", I15/7,F15="Biweekly", I15/15,F15="Monthly", I15/30,F15="Quarterly", I15/90,F15="Yearly", I15/365,F15="Ad-hoc", I15/365)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -1892,7 +1892,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>195</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>195</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>195</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>195</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>195</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>195</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>195</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>195</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>195</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>195</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>195</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>195</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>195</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>195</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>195</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>195</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>195</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>195</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>195</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>195</v>
       </c>
@@ -5324,9 +5324,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J120" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="OTID"/>
+        <filter val="Operations"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DIAL- CS/AS Mulesoft"/>
+        <filter val="DIAL- Vault Clinical Mulesoft"/>
+        <filter val="DIAL-CS/AS-MuleSoft"/>
+        <filter val="MuleSoft AS/CS"/>
+        <filter val="Mulesoft B2P"/>
+        <filter val="Mulesoft SMART"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864D542-4068-4FA0-998D-3DED99535115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B75E1E7-0CEB-4675-A8B4-D51DDD92BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="210">
   <si>
     <t>Application</t>
   </si>
@@ -735,6 +735,33 @@
   </si>
   <si>
     <t>OTID-Datahub</t>
+  </si>
+  <si>
+    <t>Incidents/sctasks/itask/</t>
+  </si>
+  <si>
+    <t>CRQ on Monthly Basis</t>
+  </si>
+  <si>
+    <t>SPECTRUM to Veeva Data Migration Activities</t>
+  </si>
+  <si>
+    <t>Prod Issues by email</t>
+  </si>
+  <si>
+    <t>SIP Provisioning/De Provisioning report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECTRUM Business Connect </t>
+  </si>
+  <si>
+    <t>SPECTRUM to Veeva Migration Call activity tracking</t>
+  </si>
+  <si>
+    <t>SPECTRUM RD Clinical Weekly status Connect</t>
+  </si>
+  <si>
+    <t>SPECTRUM - SIP Business Connect</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="E95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1654,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>195</v>
       </c>
@@ -1688,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>195</v>
       </c>
@@ -1722,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>195</v>
       </c>
@@ -1892,7 +1919,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>195</v>
       </c>
@@ -1926,7 +1953,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>195</v>
       </c>
@@ -1960,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>195</v>
       </c>
@@ -3690,7 +3717,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>196</v>
       </c>
@@ -3724,7 +3751,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>196</v>
       </c>
@@ -3758,7 +3785,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>196</v>
       </c>
@@ -3792,7 +3819,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>196</v>
       </c>
@@ -3826,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>196</v>
       </c>
@@ -3860,7 +3887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>196</v>
       </c>
@@ -3894,7 +3921,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>196</v>
       </c>
@@ -3928,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>196</v>
       </c>
@@ -3962,7 +3989,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>196</v>
       </c>
@@ -3996,7 +4023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>196</v>
       </c>
@@ -4030,7 +4057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>196</v>
       </c>
@@ -4064,7 +4091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>196</v>
       </c>
@@ -4098,7 +4125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>196</v>
       </c>
@@ -4132,7 +4159,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>196</v>
       </c>
@@ -4166,7 +4193,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>196</v>
       </c>
@@ -4200,7 +4227,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>196</v>
       </c>
@@ -4234,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>196</v>
       </c>
@@ -4268,7 +4295,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>196</v>
       </c>
@@ -4302,7 +4329,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>196</v>
       </c>
@@ -4336,7 +4363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>196</v>
       </c>
@@ -4370,7 +4397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>196</v>
       </c>
@@ -4404,7 +4431,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>196</v>
       </c>
@@ -4438,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>196</v>
       </c>
@@ -4472,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>196</v>
       </c>
@@ -4506,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>196</v>
       </c>
@@ -4540,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>196</v>
       </c>
@@ -4574,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>196</v>
       </c>
@@ -4608,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>196</v>
       </c>
@@ -4642,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>196</v>
       </c>
@@ -4676,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>196</v>
       </c>
@@ -4710,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>196</v>
       </c>
@@ -4744,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>196</v>
       </c>
@@ -4778,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>196</v>
       </c>
@@ -4812,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>196</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>196</v>
       </c>
@@ -4880,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>196</v>
       </c>
@@ -4914,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>196</v>
       </c>
@@ -4948,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>196</v>
       </c>
@@ -4982,7 +5009,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>196</v>
       </c>
@@ -5322,21 +5349,340 @@
         <v>26</v>
       </c>
     </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="10">
+        <v>2</v>
+      </c>
+      <c r="H121" s="13" cm="1">
+        <f t="array" ref="H121">_xlfn.IFS(F121="Daily", G121,F121="Weekly", G121/7,F121="Biweekly", G121/15,F121="Monthly", G121/30,F121="Quarterly", G121/90,F121="Yearly", G121/365,F121="Ad-hoc", G121/365)</f>
+        <v>2</v>
+      </c>
+      <c r="J121" s="13" cm="1">
+        <f t="array" ref="J121">_xlfn.IFS(F121="Daily", I121,F121="Weekly", I121/7,F121="Biweekly", I121/15,F121="Monthly", I121/30,F121="Quarterly", I121/90,F121="Yearly", I121/365,F121="Ad-hoc", I121/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="10">
+        <v>2</v>
+      </c>
+      <c r="H122" s="13" cm="1">
+        <f t="array" ref="H122">_xlfn.IFS(F122="Daily", G122,F122="Weekly", G122/7,F122="Biweekly", G122/15,F122="Monthly", G122/30,F122="Quarterly", G122/90,F122="Yearly", G122/365,F122="Ad-hoc", G122/365)</f>
+        <v>2</v>
+      </c>
+      <c r="I122" s="10">
+        <v>25</v>
+      </c>
+      <c r="J122" s="13" cm="1">
+        <f t="array" ref="J122">_xlfn.IFS(F122="Daily", I122,F122="Weekly", I122/7,F122="Biweekly", I122/15,F122="Monthly", I122/30,F122="Quarterly", I122/90,F122="Yearly", I122/365,F122="Ad-hoc", I122/365)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="10">
+        <v>2</v>
+      </c>
+      <c r="H123" s="13" cm="1">
+        <f t="array" ref="H123">_xlfn.IFS(F123="Daily", G123,F123="Weekly", G123/7,F123="Biweekly", G123/15,F123="Monthly", G123/30,F123="Quarterly", G123/90,F123="Yearly", G123/365,F123="Ad-hoc", G123/365)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="13" cm="1">
+        <f t="array" ref="J123">_xlfn.IFS(F123="Daily", I123,F123="Weekly", I123/7,F123="Biweekly", I123/15,F123="Monthly", I123/30,F123="Quarterly", I123/90,F123="Yearly", I123/365,F123="Ad-hoc", I123/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="10">
+        <v>50</v>
+      </c>
+      <c r="H124" s="13" cm="1">
+        <f t="array" ref="H124">_xlfn.IFS(F124="Daily", G124,F124="Weekly", G124/7,F124="Biweekly", G124/15,F124="Monthly", G124/30,F124="Quarterly", G124/90,F124="Yearly", G124/365,F124="Ad-hoc", G124/365)</f>
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="I124" s="10"/>
+      <c r="J124" s="13" cm="1">
+        <f t="array" ref="J124">_xlfn.IFS(F124="Daily", I124,F124="Weekly", I124/7,F124="Biweekly", I124/15,F124="Monthly", I124/30,F124="Quarterly", I124/90,F124="Yearly", I124/365,F124="Ad-hoc", I124/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="10">
+        <v>4</v>
+      </c>
+      <c r="H125" s="13" cm="1">
+        <f t="array" ref="H125">_xlfn.IFS(F125="Daily", G125,F125="Weekly", G125/7,F125="Biweekly", G125/15,F125="Monthly", G125/30,F125="Quarterly", G125/90,F125="Yearly", G125/365,F125="Ad-hoc", G125/365)</f>
+        <v>4</v>
+      </c>
+      <c r="I125" s="10"/>
+      <c r="J125" s="13" cm="1">
+        <f t="array" ref="J125">_xlfn.IFS(F125="Daily", I125,F125="Weekly", I125/7,F125="Biweekly", I125/15,F125="Monthly", I125/30,F125="Quarterly", I125/90,F125="Yearly", I125/365,F125="Ad-hoc", I125/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="10">
+        <v>4</v>
+      </c>
+      <c r="H126" s="13" cm="1">
+        <f t="array" ref="H126">_xlfn.IFS(F126="Daily", G126,F126="Weekly", G126/7,F126="Biweekly", G126/15,F126="Monthly", G126/30,F126="Quarterly", G126/90,F126="Yearly", G126/365,F126="Ad-hoc", G126/365)</f>
+        <v>1.0958904109589041E-2</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="13" cm="1">
+        <f t="array" ref="J126">_xlfn.IFS(F126="Daily", I126,F126="Weekly", I126/7,F126="Biweekly", I126/15,F126="Monthly", I126/30,F126="Quarterly", I126/90,F126="Yearly", I126/365,F126="Ad-hoc", I126/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="10">
+        <v>1</v>
+      </c>
+      <c r="H127" s="13" cm="1">
+        <f t="array" ref="H127">_xlfn.IFS(F127="Daily", G127,F127="Weekly", G127/7,F127="Biweekly", G127/15,F127="Monthly", G127/30,F127="Quarterly", G127/90,F127="Yearly", G127/365,F127="Ad-hoc", G127/365)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I127" s="10"/>
+      <c r="J127" s="13" cm="1">
+        <f t="array" ref="J127">_xlfn.IFS(F127="Daily", I127,F127="Weekly", I127/7,F127="Biweekly", I127/15,F127="Monthly", I127/30,F127="Quarterly", I127/90,F127="Yearly", I127/365,F127="Ad-hoc", I127/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="10">
+        <v>1</v>
+      </c>
+      <c r="H128" s="13" cm="1">
+        <f t="array" ref="H128">_xlfn.IFS(F128="Daily", G128,F128="Weekly", G128/7,F128="Biweekly", G128/15,F128="Monthly", G128/30,F128="Quarterly", G128/90,F128="Yearly", G128/365,F128="Ad-hoc", G128/365)</f>
+        <v>1</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="13" cm="1">
+        <f t="array" ref="J128">_xlfn.IFS(F128="Daily", I128,F128="Weekly", I128/7,F128="Biweekly", I128/15,F128="Monthly", I128/30,F128="Quarterly", I128/90,F128="Yearly", I128/365,F128="Ad-hoc", I128/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="10">
+        <v>1</v>
+      </c>
+      <c r="H129" s="13" cm="1">
+        <f t="array" ref="H129">_xlfn.IFS(F129="Daily", G129,F129="Weekly", G129/7,F129="Biweekly", G129/15,F129="Monthly", G129/30,F129="Quarterly", G129/90,F129="Yearly", G129/365,F129="Ad-hoc", G129/365)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I129" s="10"/>
+      <c r="J129" s="13" cm="1">
+        <f t="array" ref="J129">_xlfn.IFS(F129="Daily", I129,F129="Weekly", I129/7,F129="Biweekly", I129/15,F129="Monthly", I129/30,F129="Quarterly", I129/90,F129="Yearly", I129/365,F129="Ad-hoc", I129/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G130" s="10">
+        <v>1</v>
+      </c>
+      <c r="H130" s="13" cm="1">
+        <f t="array" ref="H130">_xlfn.IFS(F130="Daily", G130,F130="Weekly", G130/7,F130="Biweekly", G130/15,F130="Monthly", G130/30,F130="Quarterly", G130/90,F130="Yearly", G130/365,F130="Ad-hoc", G130/365)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I130" s="10"/>
+      <c r="J130" s="13" cm="1">
+        <f t="array" ref="J130">_xlfn.IFS(F130="Daily", I130,F130="Weekly", I130/7,F130="Biweekly", I130/15,F130="Monthly", I130/30,F130="Quarterly", I130/90,F130="Yearly", I130/365,F130="Ad-hoc", I130/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I131" s="10"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J120" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Operations"/>
+        <filter val="Legacy"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="1">
       <filters>
-        <filter val="DIAL- CS/AS Mulesoft"/>
-        <filter val="DIAL- Vault Clinical Mulesoft"/>
-        <filter val="DIAL-CS/AS-MuleSoft"/>
-        <filter val="MuleSoft AS/CS"/>
-        <filter val="Mulesoft B2P"/>
-        <filter val="Mulesoft SMART"/>
+        <filter val="SPECTRUM"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B75E1E7-0CEB-4675-A8B4-D51DDD92BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47157216-77CE-420A-A8CB-BBF4A9E3299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Legacy Apps effort estimation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Efforts'!$A$1:$J$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Efforts'!$A$1:$J$130</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1256,8 +1256,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2044,11 +2044,11 @@
         <v>5</v>
       </c>
       <c r="I23" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J23" s="13" cm="1">
         <f t="array" ref="J23">_xlfn.IFS(F23="Daily", I23,F23="Weekly", I23/7,F23="Biweekly", I23/15,F23="Monthly", I23/30,F23="Quarterly", I23/90,F23="Yearly", I23/365,F23="Ad-hoc", I23/365)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -2486,11 +2486,11 @@
         <v>1</v>
       </c>
       <c r="I36" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J36" s="13" cm="1">
         <f t="array" ref="J36">_xlfn.IFS(F36="Daily", I36,F36="Weekly", I36/7,F36="Biweekly", I36/15,F36="Monthly", I36/30,F36="Quarterly", I36/90,F36="Yearly", I36/365,F36="Ad-hoc", I36/365)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -2520,11 +2520,11 @@
         <v>2.5</v>
       </c>
       <c r="I37" s="12">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J37" s="13" cm="1">
         <f t="array" ref="J37">_xlfn.IFS(F37="Daily", I37,F37="Weekly", I37/7,F37="Biweekly", I37/15,F37="Monthly", I37/30,F37="Quarterly", I37/90,F37="Yearly", I37/365,F37="Ad-hoc", I37/365)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -2588,11 +2588,11 @@
         <v>2</v>
       </c>
       <c r="I39" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="13" cm="1">
         <f t="array" ref="J39">_xlfn.IFS(F39="Daily", I39,F39="Weekly", I39/7,F39="Biweekly", I39/15,F39="Monthly", I39/30,F39="Quarterly", I39/90,F39="Yearly", I39/365,F39="Ad-hoc", I39/365)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -3030,11 +3030,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J52" s="13" cm="1">
         <f t="array" ref="J52">_xlfn.IFS(F52="Daily", I52,F52="Weekly", I52/7,F52="Biweekly", I52/15,F52="Monthly", I52/30,F52="Quarterly", I52/90,F52="Yearly", I52/365,F52="Ad-hoc", I52/365)</f>
-        <v>0.35714285714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -3064,11 +3064,11 @@
         <v>0</v>
       </c>
       <c r="I53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="13" cm="1">
         <f t="array" ref="J53">_xlfn.IFS(F53="Daily", I53,F53="Weekly", I53/7,F53="Biweekly", I53/15,F53="Monthly", I53/30,F53="Quarterly", I53/90,F53="Yearly", I53/365,F53="Ad-hoc", I53/365)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -3261,11 +3261,11 @@
         <v>101</v>
       </c>
       <c r="G59" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H59" s="13" cm="1">
         <f t="array" ref="H59">_xlfn.IFS(F59="Daily", G59,F59="Weekly", G59/7,F59="Biweekly", G59/15,F59="Monthly", G59/30,F59="Quarterly", G59/90,F59="Yearly", G59/365,F59="Ad-hoc", G59/365)</f>
-        <v>6.575342465753424E-2</v>
+        <v>0</v>
       </c>
       <c r="I59" s="5">
         <v>0</v>
@@ -3295,11 +3295,11 @@
         <v>101</v>
       </c>
       <c r="G60" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H60" s="13" cm="1">
         <f t="array" ref="H60">_xlfn.IFS(F60="Daily", G60,F60="Weekly", G60/7,F60="Biweekly", G60/15,F60="Monthly", G60/30,F60="Quarterly", G60/90,F60="Yearly", G60/365,F60="Ad-hoc", G60/365)</f>
-        <v>3.8356164383561646E-2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>196</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>196</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>196</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>196</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>196</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>196</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>196</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>196</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>196</v>
       </c>
@@ -3635,21 +3635,21 @@
         <v>11</v>
       </c>
       <c r="G70" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" s="13" cm="1">
         <f t="array" ref="H70">_xlfn.IFS(F70="Daily", G70,F70="Weekly", G70/7,F70="Biweekly", G70/15,F70="Monthly", G70/30,F70="Quarterly", G70/90,F70="Yearly", G70/365,F70="Ad-hoc", G70/365)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" s="13" cm="1">
         <f t="array" ref="J70">_xlfn.IFS(F70="Daily", I70,F70="Weekly", I70/7,F70="Biweekly", I70/15,F70="Monthly", I70/30,F70="Quarterly", I70/90,F70="Yearly", I70/365,F70="Ad-hoc", I70/365)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>196</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>196</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>196</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>196</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>196</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>196</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>196</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>196</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>196</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>196</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>196</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>196</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>196</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>196</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>196</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>196</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>196</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>196</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>196</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>196</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>196</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>196</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>196</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>196</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>196</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>196</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>196</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>196</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>196</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>196</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>196</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>196</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>196</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>196</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>196</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>196</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>196</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>196</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>196</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>196</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>196</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>196</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>196</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>196</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>196</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>196</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>196</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>196</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>196</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>196</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>196</v>
       </c>
@@ -5674,15 +5674,10 @@
       <c r="I131" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J120" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Legacy"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:J130" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
     <filterColumn colId="1">
       <filters>
-        <filter val="SPECTRUM"/>
+        <filter val="CORE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47157216-77CE-420A-A8CB-BBF4A9E3299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DF7225-8390-4956-B309-7605583BB065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,7 +1443,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>195</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>195</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>195</v>
       </c>
@@ -1565,11 +1565,11 @@
         <v>11</v>
       </c>
       <c r="G9" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="13" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(F9="Daily", G9,F9="Weekly", G9/7,F9="Biweekly", G9/15,F9="Monthly", G9/30,F9="Quarterly", G9/90,F9="Yearly", G9/365,F9="Ad-hoc", G9/365)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>195</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>195</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>195</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>195</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>195</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>195</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>195</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>195</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>196</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>196</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>196</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>196</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>196</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>196</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>196</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>196</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>196</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>196</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>196</v>
       </c>
@@ -5675,9 +5675,24 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J130" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ZG"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="CORE"/>
+        <filter val="DIAL"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Operations"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Daily"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F41A1-0B59-4A97-A8FB-725F45EEEF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E79FD-6FBB-493D-90FC-8ADC9869CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="214">
   <si>
     <t>Application</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>Operational activity - Health Check, Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Activity (Incidents/Request) </t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1276,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2117,7 +2120,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -2171,7 +2174,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>191</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>191</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>191</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>191</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>47</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>11</v>
@@ -2579,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>191</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>191</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>191</v>
       </c>
@@ -5805,9 +5808,9 @@
         <filter val="OTID"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Daily"/>
+        <filter val="Operational Activity (Incidents/Request)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E79FD-6FBB-493D-90FC-8ADC9869CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6AA29A-3D53-47C3-8830-A0C764CEECFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -1276,8 +1276,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,21 +2126,21 @@
         <v>11</v>
       </c>
       <c r="G25" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12" cm="1">
         <f t="array" ref="H25">_xlfn.IFS(F25="Daily", G25,F25="Weekly", G25/7,F25="Biweekly", G25/15,F25="Monthly", G25/30,F25="Quarterly", G25/90,F25="Yearly", G25/365,F25="Ad-hoc", G25/365)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J25" s="12" cm="1">
         <f t="array" ref="J25">_xlfn.IFS(F25="Daily", I25,F25="Weekly", I25/7,F25="Biweekly", I25/15,F25="Monthly", I25/30,F25="Quarterly", I25/90,F25="Yearly", I25/365,F25="Ad-hoc", I25/365)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>191</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>191</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>191</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>191</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>191</v>
       </c>
@@ -2330,11 +2330,11 @@
         <v>42</v>
       </c>
       <c r="G31" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="12" cm="1">
         <f t="array" ref="H31">_xlfn.IFS(F31="Daily", G31,F31="Weekly", G31/7,F31="Biweekly", G31/15,F31="Monthly", G31/30,F31="Quarterly", G31/90,F31="Yearly", G31/365,F31="Ad-hoc", G31/365)</f>
-        <v>0.7142857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I31" s="11">
         <v>2</v>
@@ -2344,7 +2344,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>191</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>191</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>191</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>191</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>191</v>
       </c>
@@ -2568,21 +2568,21 @@
         <v>11</v>
       </c>
       <c r="G38" s="11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="12" cm="1">
         <f t="array" ref="H38">_xlfn.IFS(F38="Daily", G38,F38="Weekly", G38/7,F38="Biweekly", G38/15,F38="Monthly", G38/30,F38="Quarterly", G38/90,F38="Yearly", G38/365,F38="Ad-hoc", G38/365)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="12" cm="1">
         <f t="array" ref="J38">_xlfn.IFS(F38="Daily", I38,F38="Weekly", I38/7,F38="Biweekly", I38/15,F38="Monthly", I38/30,F38="Quarterly", I38/90,F38="Yearly", I38/365,F38="Ad-hoc", I38/365)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>191</v>
       </c>
@@ -2602,11 +2602,11 @@
         <v>11</v>
       </c>
       <c r="G39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="12" cm="1">
         <f t="array" ref="H39">_xlfn.IFS(F39="Daily", G39,F39="Weekly", G39/7,F39="Biweekly", G39/15,F39="Monthly", G39/30,F39="Quarterly", G39/90,F39="Yearly", G39/365,F39="Ad-hoc", G39/365)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>191</v>
       </c>
@@ -2643,14 +2643,14 @@
         <v>2.5</v>
       </c>
       <c r="I40" s="11">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J40" s="12" cm="1">
         <f t="array" ref="J40">_xlfn.IFS(F40="Daily", I40,F40="Weekly", I40/7,F40="Biweekly", I40/15,F40="Monthly", I40/30,F40="Quarterly", I40/90,F40="Yearly", I40/365,F40="Ad-hoc", I40/365)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>191</v>
       </c>
@@ -5798,19 +5798,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J133" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ZG"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="OTID"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Operational Activity (Incidents/Request)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6AA29A-3D53-47C3-8830-A0C764CEECFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AACC1D0-3870-44B2-9B3B-CD699DF83D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="216">
   <si>
     <t>Application</t>
   </si>
@@ -774,6 +774,12 @@
   </si>
   <si>
     <t xml:space="preserve">Operational Activity (Incidents/Request) </t>
+  </si>
+  <si>
+    <t>Vault Clinical</t>
+  </si>
+  <si>
+    <t>Operational Activity(Tickets,Service Request,Itask)</t>
   </si>
 </sst>
 </file>
@@ -1273,11 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>191</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>191</v>
       </c>
@@ -1429,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>191</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>191</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>191</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>191</v>
       </c>
@@ -1564,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>191</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>191</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>191</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>191</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>191</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>191</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>191</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>191</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>191</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>191</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>191</v>
       </c>
@@ -2038,7 +2043,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>191</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>191</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>192</v>
       </c>
@@ -2752,7 +2757,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>192</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>192</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>192</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>192</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>192</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>192</v>
       </c>
@@ -2956,7 +2961,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>192</v>
       </c>
@@ -2990,7 +2995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>192</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>192</v>
       </c>
@@ -3058,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>192</v>
       </c>
@@ -3092,7 +3097,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>192</v>
       </c>
@@ -3126,7 +3131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>192</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>192</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>192</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>192</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>192</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>192</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>192</v>
       </c>
@@ -3364,7 +3369,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>192</v>
       </c>
@@ -3398,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>192</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>192</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>192</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>192</v>
       </c>
@@ -3534,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>192</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>192</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>192</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>192</v>
       </c>
@@ -3670,7 +3675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>192</v>
       </c>
@@ -3704,7 +3709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>192</v>
       </c>
@@ -3738,7 +3743,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>192</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>192</v>
       </c>
@@ -3806,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>192</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>192</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>192</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>192</v>
       </c>
@@ -3942,7 +3947,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>192</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>192</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>192</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>192</v>
       </c>
@@ -4078,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>192</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>192</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>192</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>192</v>
       </c>
@@ -4214,7 +4219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>192</v>
       </c>
@@ -4248,7 +4253,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>192</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>192</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>192</v>
       </c>
@@ -4350,7 +4355,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>192</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>192</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>192</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>192</v>
       </c>
@@ -4486,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>192</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>192</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>192</v>
       </c>
@@ -4588,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>192</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>192</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>192</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>192</v>
       </c>
@@ -4724,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>192</v>
       </c>
@@ -4758,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>192</v>
       </c>
@@ -4792,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>192</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>192</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>192</v>
       </c>
@@ -4894,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>192</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>192</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>192</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>192</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>192</v>
       </c>
@@ -5064,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>192</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>192</v>
       </c>
@@ -5132,7 +5137,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>192</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>192</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>192</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>192</v>
       </c>
@@ -5268,7 +5273,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>192</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>192</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>192</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>192</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>192</v>
       </c>
@@ -5438,7 +5443,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>192</v>
       </c>
@@ -5472,7 +5477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>192</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>192</v>
       </c>
@@ -5537,7 +5542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>192</v>
       </c>
@@ -5569,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>192</v>
       </c>
@@ -5601,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>192</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>192</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>192</v>
       </c>
@@ -5697,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>192</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>192</v>
       </c>
@@ -5794,16 +5799,40 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I134" s="9"/>
+      <c r="A134" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="2">
+        <v>16</v>
+      </c>
+      <c r="H134" s="12" cm="1">
+        <f t="array" ref="H134">_xlfn.IFS(F134="Daily", G134,F134="Weekly", G134/7,F134="Biweekly", G134/15,F134="Monthly", G134/30,F134="Quarterly", G134/90,F134="Yearly", G134/365,F134="Ad-hoc", G134/365)</f>
+        <v>16</v>
+      </c>
+      <c r="I134" s="9">
+        <v>80</v>
+      </c>
+      <c r="J134" s="12" cm="1">
+        <f t="array" ref="J134">_xlfn.IFS(F134="Daily", I134,F134="Weekly", I134/7,F134="Biweekly", I134/15,F134="Monthly", I134/30,F134="Quarterly", I134/90,F134="Yearly", I134/365,F134="Ad-hoc", I134/365)</f>
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J133" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="OTID"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TeamEffortEstimation-V1.xlsx
+++ b/TeamEffortEstimation-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbiahm\genai\teameffort\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AACC1D0-3870-44B2-9B3B-CD699DF83D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B1AD5-162B-45A4-B53E-7D7AD6798D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B01E2F8E-B2B7-42DA-8E3E-9A56F4AEE651}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Legacy Apps effort estimation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Efforts'!$A$1:$J$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Efforts'!$A$1:$J$136</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="218">
   <si>
     <t>Application</t>
   </si>
@@ -780,6 +780,13 @@
   </si>
   <si>
     <t>Operational Activity(Tickets,Service Request,Itask)</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Certification Renewal(Vault Quality-&gt;OTID(Mulesoft),Vault Clinical-&gt;OTID(Mulesoft),
+Legacy InForm-&gt;OTID(Mulesoft)</t>
   </si>
 </sst>
 </file>
@@ -913,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -959,6 +966,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,10 +1289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
-  <dimension ref="A1:J134"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>191</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>191</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>191</v>
       </c>
@@ -1468,7 +1479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>191</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>191</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>191</v>
       </c>
@@ -1569,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -1601,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
@@ -1635,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>191</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>191</v>
       </c>
@@ -1703,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -1737,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>191</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>191</v>
       </c>
@@ -1805,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>191</v>
       </c>
@@ -1839,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>191</v>
       </c>
@@ -1873,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>191</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>191</v>
       </c>
@@ -1941,7 +1952,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>191</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>191</v>
       </c>
@@ -2009,7 +2020,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>191</v>
       </c>
@@ -2043,7 +2054,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>191</v>
       </c>
@@ -2077,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>191</v>
       </c>
@@ -2138,14 +2149,14 @@
         <v>3</v>
       </c>
       <c r="I25" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J25" s="12" cm="1">
         <f t="array" ref="J25">_xlfn.IFS(F25="Daily", I25,F25="Weekly", I25/7,F25="Biweekly", I25/15,F25="Monthly", I25/30,F25="Quarterly", I25/90,F25="Yearly", I25/365,F25="Ad-hoc", I25/365)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -2172,14 +2183,14 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="I26" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" s="12" cm="1">
         <f t="array" ref="J26">_xlfn.IFS(F26="Daily", I26,F26="Weekly", I26/7,F26="Biweekly", I26/15,F26="Monthly", I26/30,F26="Quarterly", I26/90,F26="Yearly", I26/365,F26="Ad-hoc", I26/365)</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>191</v>
       </c>
@@ -2206,14 +2217,14 @@
         <v>0.5</v>
       </c>
       <c r="I27" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="12" cm="1">
         <f t="array" ref="J27">_xlfn.IFS(F27="Daily", I27,F27="Weekly", I27/7,F27="Biweekly", I27/15,F27="Monthly", I27/30,F27="Quarterly", I27/90,F27="Yearly", I27/365,F27="Ad-hoc", I27/365)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>191</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>191</v>
       </c>
@@ -2267,11 +2278,11 @@
         <v>42</v>
       </c>
       <c r="G29" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="12" cm="1">
         <f t="array" ref="H29">_xlfn.IFS(F29="Daily", G29,F29="Weekly", G29/7,F29="Biweekly", G29/15,F29="Monthly", G29/30,F29="Quarterly", G29/90,F29="Yearly", G29/365,F29="Ad-hoc", G29/365)</f>
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I29" s="11">
         <v>1</v>
@@ -2281,7 +2292,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>191</v>
       </c>
@@ -2315,7 +2326,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>191</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>191</v>
       </c>
@@ -2394,30 +2405,30 @@
         <v>53</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>193</v>
+        <v>39</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G33" s="11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="12" cm="1">
         <f t="array" ref="H33">_xlfn.IFS(F33="Daily", G33,F33="Weekly", G33/7,F33="Biweekly", G33/15,F33="Monthly", G33/30,F33="Quarterly", G33/90,F33="Yearly", G33/365,F33="Ad-hoc", G33/365)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="I33" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33" s="12" cm="1">
         <f t="array" ref="J33">_xlfn.IFS(F33="Daily", I33,F33="Weekly", I33/7,F33="Biweekly", I33/15,F33="Monthly", I33/30,F33="Quarterly", I33/90,F33="Yearly", I33/365,F33="Ad-hoc", I33/365)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>191</v>
       </c>
@@ -2428,30 +2439,30 @@
         <v>53</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G34" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H34" s="12" cm="1">
         <f t="array" ref="H34">_xlfn.IFS(F34="Daily", G34,F34="Weekly", G34/7,F34="Biweekly", G34/15,F34="Monthly", G34/30,F34="Quarterly", G34/90,F34="Yearly", G34/365,F34="Ad-hoc", G34/365)</f>
-        <v>1</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I34" s="11">
         <v>1</v>
       </c>
       <c r="J34" s="12" cm="1">
         <f t="array" ref="J34">_xlfn.IFS(F34="Daily", I34,F34="Weekly", I34/7,F34="Biweekly", I34/15,F34="Monthly", I34/30,F34="Quarterly", I34/90,F34="Yearly", I34/365,F34="Ad-hoc", I34/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>191</v>
       </c>
@@ -2462,30 +2473,30 @@
         <v>53</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="12" cm="1">
         <f t="array" ref="H35">_xlfn.IFS(F35="Daily", G35,F35="Weekly", G35/7,F35="Biweekly", G35/15,F35="Monthly", G35/30,F35="Quarterly", G35/90,F35="Yearly", G35/365,F35="Ad-hoc", G35/365)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" s="12" cm="1">
         <f t="array" ref="J35">_xlfn.IFS(F35="Daily", I35,F35="Weekly", I35/7,F35="Biweekly", I35/15,F35="Monthly", I35/30,F35="Quarterly", I35/90,F35="Yearly", I35/365,F35="Ad-hoc", I35/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>191</v>
       </c>
@@ -2499,10 +2510,10 @@
         <v>47</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -2516,10 +2527,10 @@
       </c>
       <c r="J36" s="12" cm="1">
         <f t="array" ref="J36">_xlfn.IFS(F36="Daily", I36,F36="Weekly", I36/7,F36="Biweekly", I36/15,F36="Monthly", I36/30,F36="Quarterly", I36/90,F36="Yearly", I36/365,F36="Ad-hoc", I36/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>191</v>
       </c>
@@ -2533,27 +2544,27 @@
         <v>47</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G37" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12" cm="1">
         <f t="array" ref="H37">_xlfn.IFS(F37="Daily", G37,F37="Weekly", G37/7,F37="Biweekly", G37/15,F37="Monthly", G37/30,F37="Quarterly", G37/90,F37="Yearly", G37/365,F37="Ad-hoc", G37/365)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J37" s="12" cm="1">
         <f t="array" ref="J37">_xlfn.IFS(F37="Daily", I37,F37="Weekly", I37/7,F37="Biweekly", I37/15,F37="Monthly", I37/30,F37="Quarterly", I37/90,F37="Yearly", I37/365,F37="Ad-hoc", I37/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>191</v>
       </c>
@@ -2567,24 +2578,24 @@
         <v>47</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="12" cm="1">
         <f t="array" ref="H38">_xlfn.IFS(F38="Daily", G38,F38="Weekly", G38/7,F38="Biweekly", G38/15,F38="Monthly", G38/30,F38="Quarterly", G38/90,F38="Yearly", G38/365,F38="Ad-hoc", G38/365)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I38" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" s="12" cm="1">
         <f t="array" ref="J38">_xlfn.IFS(F38="Daily", I38,F38="Weekly", I38/7,F38="Biweekly", I38/15,F38="Monthly", I38/30,F38="Quarterly", I38/90,F38="Yearly", I38/365,F38="Ad-hoc", I38/365)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2597,31 +2608,31 @@
       <c r="C39" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>54</v>
+      <c r="D39" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="12" cm="1">
         <f t="array" ref="H39">_xlfn.IFS(F39="Daily", G39,F39="Weekly", G39/7,F39="Biweekly", G39/15,F39="Monthly", G39/30,F39="Quarterly", G39/90,F39="Yearly", G39/365,F39="Ad-hoc", G39/365)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J39" s="12" cm="1">
         <f t="array" ref="J39">_xlfn.IFS(F39="Daily", I39,F39="Weekly", I39/7,F39="Biweekly", I39/15,F39="Monthly", I39/30,F39="Quarterly", I39/90,F39="Yearly", I39/365,F39="Ad-hoc", I39/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>191</v>
       </c>
@@ -2632,30 +2643,30 @@
         <v>53</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="11">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H40" s="12" cm="1">
         <f t="array" ref="H40">_xlfn.IFS(F40="Daily", G40,F40="Weekly", G40/7,F40="Biweekly", G40/15,F40="Monthly", G40/30,F40="Quarterly", G40/90,F40="Yearly", G40/365,F40="Ad-hoc", G40/365)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" s="12" cm="1">
         <f t="array" ref="J40">_xlfn.IFS(F40="Daily", I40,F40="Weekly", I40/7,F40="Biweekly", I40/15,F40="Monthly", I40/30,F40="Quarterly", I40/90,F40="Yearly", I40/365,F40="Ad-hoc", I40/365)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -2666,10 +2677,10 @@
         <v>53</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>11</v>
@@ -2682,14 +2693,14 @@
         <v>2.5</v>
       </c>
       <c r="I41" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="12" cm="1">
         <f t="array" ref="J41">_xlfn.IFS(F41="Daily", I41,F41="Weekly", I41/7,F41="Biweekly", I41/15,F41="Monthly", I41/30,F41="Quarterly", I41/90,F41="Yearly", I41/365,F41="Ad-hoc", I41/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>191</v>
       </c>
@@ -2700,20 +2711,20 @@
         <v>53</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H42" s="12" cm="1">
         <f t="array" ref="H42">_xlfn.IFS(F42="Daily", G42,F42="Weekly", G42/7,F42="Biweekly", G42/15,F42="Monthly", G42/30,F42="Quarterly", G42/90,F42="Yearly", G42/365,F42="Ad-hoc", G42/365)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I42" s="11">
         <v>0</v>
@@ -2723,41 +2734,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>71</v>
+      <c r="D43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2</v>
       </c>
       <c r="H43" s="12" cm="1">
         <f t="array" ref="H43">_xlfn.IFS(F43="Daily", G43,F43="Weekly", G43/7,F43="Biweekly", G43/15,F43="Monthly", G43/30,F43="Quarterly", G43/90,F43="Yearly", G43/365,F43="Ad-hoc", G43/365)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
       </c>
       <c r="J43" s="12" cm="1">
         <f t="array" ref="J43">_xlfn.IFS(F43="Daily", I43,F43="Weekly", I43/7,F43="Biweekly", I43/15,F43="Monthly", I43/30,F43="Quarterly", I43/90,F43="Yearly", I43/365,F43="Ad-hoc", I43/365)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>192</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>170</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>42</v>
@@ -2784,14 +2795,14 @@
         <v>0</v>
       </c>
       <c r="I44" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J44" s="12" cm="1">
         <f t="array" ref="J44">_xlfn.IFS(F44="Daily", I44,F44="Weekly", I44/7,F44="Biweekly", I44/15,F44="Monthly", I44/30,F44="Quarterly", I44/90,F44="Yearly", I44/365,F44="Ad-hoc", I44/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>192</v>
       </c>
@@ -2805,10 +2816,10 @@
         <v>170</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G45" s="5">
         <v>0</v>
@@ -2818,14 +2829,14 @@
         <v>0</v>
       </c>
       <c r="I45" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="12" cm="1">
         <f t="array" ref="J45">_xlfn.IFS(F45="Daily", I45,F45="Weekly", I45/7,F45="Biweekly", I45/15,F45="Monthly", I45/30,F45="Quarterly", I45/90,F45="Yearly", I45/365,F45="Ad-hoc", I45/365)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>192</v>
       </c>
@@ -2839,12 +2850,12 @@
         <v>170</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="12" cm="1">
@@ -2852,14 +2863,14 @@
         <v>0</v>
       </c>
       <c r="I46" s="5">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="J46" s="12" cm="1">
         <f t="array" ref="J46">_xlfn.IFS(F46="Daily", I46,F46="Weekly", I46/7,F46="Biweekly", I46/15,F46="Monthly", I46/30,F46="Quarterly", I46/90,F46="Yearly", I46/365,F46="Ad-hoc", I46/365)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>192</v>
       </c>
@@ -2873,27 +2884,27 @@
         <v>170</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="5">
-        <v>1</v>
+      <c r="G47" s="8">
+        <v>0</v>
       </c>
       <c r="H47" s="12" cm="1">
         <f t="array" ref="H47">_xlfn.IFS(F47="Daily", G47,F47="Weekly", G47/7,F47="Biweekly", G47/15,F47="Monthly", G47/30,F47="Quarterly", G47/90,F47="Yearly", G47/365,F47="Ad-hoc", G47/365)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="J47" s="12" cm="1">
         <f t="array" ref="J47">_xlfn.IFS(F47="Daily", I47,F47="Weekly", I47/7,F47="Biweekly", I47/15,F47="Monthly", I47/30,F47="Quarterly", I47/90,F47="Yearly", I47/365,F47="Ad-hoc", I47/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>192</v>
       </c>
@@ -2907,27 +2918,27 @@
         <v>170</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
       </c>
       <c r="H48" s="12" cm="1">
         <f t="array" ref="H48">_xlfn.IFS(F48="Daily", G48,F48="Weekly", G48/7,F48="Biweekly", G48/15,F48="Monthly", G48/30,F48="Quarterly", G48/90,F48="Yearly", G48/365,F48="Ad-hoc", G48/365)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J48" s="12" cm="1">
         <f t="array" ref="J48">_xlfn.IFS(F48="Daily", I48,F48="Weekly", I48/7,F48="Biweekly", I48/15,F48="Monthly", I48/30,F48="Quarterly", I48/90,F48="Yearly", I48/365,F48="Ad-hoc", I48/365)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>192</v>
       </c>
@@ -2941,27 +2952,27 @@
         <v>170</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="G49" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H49" s="12" cm="1">
         <f t="array" ref="H49">_xlfn.IFS(F49="Daily", G49,F49="Weekly", G49/7,F49="Biweekly", G49/15,F49="Monthly", G49/30,F49="Quarterly", G49/90,F49="Yearly", G49/365,F49="Ad-hoc", G49/365)</f>
-        <v>0.21428571428571427</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I49" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J49" s="12" cm="1">
         <f t="array" ref="J49">_xlfn.IFS(F49="Daily", I49,F49="Weekly", I49/7,F49="Biweekly", I49/15,F49="Monthly", I49/30,F49="Quarterly", I49/90,F49="Yearly", I49/365,F49="Ad-hoc", I49/365)</f>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>192</v>
       </c>
@@ -2975,46 +2986,46 @@
         <v>170</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G50" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H50" s="12" cm="1">
         <f t="array" ref="H50">_xlfn.IFS(F50="Daily", G50,F50="Weekly", G50/7,F50="Biweekly", G50/15,F50="Monthly", G50/30,F50="Quarterly", G50/90,F50="Yearly", G50/365,F50="Ad-hoc", G50/365)</f>
-        <v>0.5</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I50" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J50" s="12" cm="1">
         <f t="array" ref="J50">_xlfn.IFS(F50="Daily", I50,F50="Weekly", I50/7,F50="Biweekly", I50/15,F50="Monthly", I50/30,F50="Quarterly", I50/90,F50="Yearly", I50/365,F50="Ad-hoc", I50/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>171</v>
+      <c r="D51" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="5">
         <v>0.5</v>
       </c>
       <c r="H51" s="12" cm="1">
@@ -3022,14 +3033,14 @@
         <v>0.5</v>
       </c>
       <c r="I51" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="12" cm="1">
         <f t="array" ref="J51">_xlfn.IFS(F51="Daily", I51,F51="Weekly", I51/7,F51="Biweekly", I51/15,F51="Monthly", I51/30,F51="Quarterly", I51/90,F51="Yearly", I51/365,F51="Ad-hoc", I51/365)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>192</v>
       </c>
@@ -3043,27 +3054,27 @@
         <v>171</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H52" s="12" cm="1">
         <f t="array" ref="H52">_xlfn.IFS(F52="Daily", G52,F52="Weekly", G52/7,F52="Biweekly", G52/15,F52="Monthly", G52/30,F52="Quarterly", G52/90,F52="Yearly", G52/365,F52="Ad-hoc", G52/365)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I52" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J52" s="12" cm="1">
         <f t="array" ref="J52">_xlfn.IFS(F52="Daily", I52,F52="Weekly", I52/7,F52="Biweekly", I52/15,F52="Monthly", I52/30,F52="Quarterly", I52/90,F52="Yearly", I52/365,F52="Ad-hoc", I52/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>192</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>171</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>11</v>
@@ -3090,14 +3101,14 @@
         <v>0</v>
       </c>
       <c r="I53" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J53" s="12" cm="1">
         <f t="array" ref="J53">_xlfn.IFS(F53="Daily", I53,F53="Weekly", I53/7,F53="Biweekly", I53/15,F53="Monthly", I53/30,F53="Quarterly", I53/90,F53="Yearly", I53/365,F53="Ad-hoc", I53/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>192</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>171</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -3131,24 +3142,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>83</v>
+      <c r="D55" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G55" s="11">
         <v>0</v>
@@ -3158,14 +3169,14 @@
         <v>0</v>
       </c>
       <c r="I55" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J55" s="12" cm="1">
         <f t="array" ref="J55">_xlfn.IFS(F55="Daily", I55,F55="Weekly", I55/7,F55="Biweekly", I55/15,F55="Monthly", I55/30,F55="Quarterly", I55/90,F55="Yearly", I55/365,F55="Ad-hoc", I55/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>192</v>
       </c>
@@ -3179,10 +3190,10 @@
         <v>83</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
@@ -3199,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>192</v>
       </c>
@@ -3213,10 +3224,10 @@
         <v>83</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G57" s="11">
         <v>0</v>
@@ -3226,14 +3237,14 @@
         <v>0</v>
       </c>
       <c r="I57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="12" cm="1">
         <f t="array" ref="J57">_xlfn.IFS(F57="Daily", I57,F57="Weekly", I57/7,F57="Biweekly", I57/15,F57="Monthly", I57/30,F57="Quarterly", I57/90,F57="Yearly", I57/365,F57="Ad-hoc", I57/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>192</v>
       </c>
@@ -3247,10 +3258,10 @@
         <v>83</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G58" s="11">
         <v>0</v>
@@ -3260,14 +3271,14 @@
         <v>0</v>
       </c>
       <c r="I58" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J58" s="12" cm="1">
         <f t="array" ref="J58">_xlfn.IFS(F58="Daily", I58,F58="Weekly", I58/7,F58="Biweekly", I58/15,F58="Monthly", I58/30,F58="Quarterly", I58/90,F58="Yearly", I58/365,F58="Ad-hoc", I58/365)</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>192</v>
       </c>
@@ -3281,10 +3292,10 @@
         <v>83</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G59" s="11">
         <v>0</v>
@@ -3294,14 +3305,14 @@
         <v>0</v>
       </c>
       <c r="I59" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J59" s="12" cm="1">
         <f t="array" ref="J59">_xlfn.IFS(F59="Daily", I59,F59="Weekly", I59/7,F59="Biweekly", I59/15,F59="Monthly", I59/30,F59="Quarterly", I59/90,F59="Yearly", I59/365,F59="Ad-hoc", I59/365)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>192</v>
       </c>
@@ -3315,7 +3326,7 @@
         <v>83</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>11</v>
@@ -3328,14 +3339,14 @@
         <v>0</v>
       </c>
       <c r="I60" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="12" cm="1">
         <f t="array" ref="J60">_xlfn.IFS(F60="Daily", I60,F60="Weekly", I60/7,F60="Biweekly", I60/15,F60="Monthly", I60/30,F60="Quarterly", I60/90,F60="Yearly", I60/365,F60="Ad-hoc", I60/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>192</v>
       </c>
@@ -3349,10 +3360,10 @@
         <v>83</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G61" s="11">
         <v>0</v>
@@ -3362,14 +3373,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J61" s="12" cm="1">
         <f t="array" ref="J61">_xlfn.IFS(F61="Daily", I61,F61="Weekly", I61/7,F61="Biweekly", I61/15,F61="Monthly", I61/30,F61="Quarterly", I61/90,F61="Yearly", I61/365,F61="Ad-hoc", I61/365)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>192</v>
       </c>
@@ -3383,12 +3394,12 @@
         <v>83</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G62" s="5">
+        <v>95</v>
+      </c>
+      <c r="G62" s="11">
         <v>0</v>
       </c>
       <c r="H62" s="12" cm="1">
@@ -3396,14 +3407,14 @@
         <v>0</v>
       </c>
       <c r="I62" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J62" s="12" cm="1">
         <f t="array" ref="J62">_xlfn.IFS(F62="Daily", I62,F62="Weekly", I62/7,F62="Biweekly", I62/15,F62="Monthly", I62/30,F62="Quarterly", I62/90,F62="Yearly", I62/365,F62="Ad-hoc", I62/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>192</v>
       </c>
@@ -3417,7 +3428,7 @@
         <v>83</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>97</v>
@@ -3437,26 +3448,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="11">
+        <v>98</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="5">
         <v>0</v>
       </c>
       <c r="H64" s="12" cm="1">
@@ -3464,14 +3475,14 @@
         <v>0</v>
       </c>
       <c r="I64" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J64" s="12" cm="1">
         <f t="array" ref="J64">_xlfn.IFS(F64="Daily", I64,F64="Weekly", I64/7,F64="Biweekly", I64/15,F64="Monthly", I64/30,F64="Quarterly", I64/90,F64="Yearly", I64/365,F64="Ad-hoc", I64/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>192</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>99</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>42</v>
@@ -3498,14 +3509,14 @@
         <v>0</v>
       </c>
       <c r="I65" s="5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="J65" s="12" cm="1">
         <f t="array" ref="J65">_xlfn.IFS(F65="Daily", I65,F65="Weekly", I65/7,F65="Biweekly", I65/15,F65="Monthly", I65/30,F65="Quarterly", I65/90,F65="Yearly", I65/365,F65="Ad-hoc", I65/365)</f>
-        <v>0.35714285714285715</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>192</v>
       </c>
@@ -3519,10 +3530,10 @@
         <v>99</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G66" s="11">
         <v>0</v>
@@ -3532,14 +3543,14 @@
         <v>0</v>
       </c>
       <c r="I66" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J66" s="12" cm="1">
         <f t="array" ref="J66">_xlfn.IFS(F66="Daily", I66,F66="Weekly", I66/7,F66="Biweekly", I66/15,F66="Monthly", I66/30,F66="Quarterly", I66/90,F66="Yearly", I66/365,F66="Ad-hoc", I66/365)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>192</v>
       </c>
@@ -3553,10 +3564,10 @@
         <v>99</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G67" s="11">
         <v>0</v>
@@ -3566,14 +3577,14 @@
         <v>0</v>
       </c>
       <c r="I67" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" s="12" cm="1">
         <f t="array" ref="J67">_xlfn.IFS(F67="Daily", I67,F67="Weekly", I67/7,F67="Biweekly", I67/15,F67="Monthly", I67/30,F67="Quarterly", I67/90,F67="Yearly", I67/365,F67="Ad-hoc", I67/365)</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>192</v>
       </c>
@@ -3587,10 +3598,10 @@
         <v>99</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>32</v>
+        <v>104</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G68" s="11">
         <v>0</v>
@@ -3600,14 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I68" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J68" s="12" cm="1">
         <f t="array" ref="J68">_xlfn.IFS(F68="Daily", I68,F68="Weekly", I68/7,F68="Biweekly", I68/15,F68="Monthly", I68/30,F68="Quarterly", I68/90,F68="Yearly", I68/365,F68="Ad-hoc", I68/365)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>192</v>
       </c>
@@ -3621,10 +3632,10 @@
         <v>99</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G69" s="11">
         <v>0</v>
@@ -3634,14 +3645,14 @@
         <v>0</v>
       </c>
       <c r="I69" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J69" s="12" cm="1">
         <f t="array" ref="J69">_xlfn.IFS(F69="Daily", I69,F69="Weekly", I69/7,F69="Biweekly", I69/15,F69="Monthly", I69/30,F69="Quarterly", I69/90,F69="Yearly", I69/365,F69="Ad-hoc", I69/365)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>192</v>
       </c>
@@ -3655,10 +3666,10 @@
         <v>99</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G70" s="11">
         <v>0</v>
@@ -3668,14 +3679,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J70" s="12" cm="1">
         <f t="array" ref="J70">_xlfn.IFS(F70="Daily", I70,F70="Weekly", I70/7,F70="Biweekly", I70/15,F70="Monthly", I70/30,F70="Quarterly", I70/90,F70="Yearly", I70/365,F70="Ad-hoc", I70/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>192</v>
       </c>
@@ -3689,7 +3700,7 @@
         <v>99</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>11</v>
@@ -3702,14 +3713,14 @@
         <v>0</v>
       </c>
       <c r="I71" s="5">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J71" s="12" cm="1">
         <f t="array" ref="J71">_xlfn.IFS(F71="Daily", I71,F71="Weekly", I71/7,F71="Biweekly", I71/15,F71="Monthly", I71/30,F71="Quarterly", I71/90,F71="Yearly", I71/365,F71="Ad-hoc", I71/365)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>192</v>
       </c>
@@ -3723,10 +3734,10 @@
         <v>99</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G72" s="11">
         <v>0</v>
@@ -3736,14 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I72" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J72" s="12" cm="1">
         <f t="array" ref="J72">_xlfn.IFS(F72="Daily", I72,F72="Weekly", I72/7,F72="Biweekly", I72/15,F72="Monthly", I72/30,F72="Quarterly", I72/90,F72="Yearly", I72/365,F72="Ad-hoc", I72/365)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>192</v>
       </c>
@@ -3757,10 +3768,10 @@
         <v>99</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G73" s="11">
         <v>0</v>
@@ -3770,14 +3781,14 @@
         <v>0</v>
       </c>
       <c r="I73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="12" cm="1">
         <f t="array" ref="J73">_xlfn.IFS(F73="Daily", I73,F73="Weekly", I73/7,F73="Biweekly", I73/15,F73="Monthly", I73/30,F73="Quarterly", I73/90,F73="Yearly", I73/365,F73="Ad-hoc", I73/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>192</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>99</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>11</v>
@@ -3804,14 +3815,14 @@
         <v>0</v>
       </c>
       <c r="I74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="12" cm="1">
         <f t="array" ref="J74">_xlfn.IFS(F74="Daily", I74,F74="Weekly", I74/7,F74="Biweekly", I74/15,F74="Monthly", I74/30,F74="Quarterly", I74/90,F74="Yearly", I74/365,F74="Ad-hoc", I74/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>192</v>
       </c>
@@ -3825,10 +3836,10 @@
         <v>99</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G75" s="11">
         <v>0</v>
@@ -3838,31 +3849,31 @@
         <v>0</v>
       </c>
       <c r="I75" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" s="12" cm="1">
         <f t="array" ref="J75">_xlfn.IFS(F75="Daily", I75,F75="Weekly", I75/7,F75="Biweekly", I75/15,F75="Monthly", I75/30,F75="Quarterly", I75/90,F75="Yearly", I75/365,F75="Ad-hoc", I75/365)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>111</v>
+      <c r="D76" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>42</v>
+        <v>110</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G76" s="11">
         <v>0</v>
@@ -3872,14 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I76" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="12" cm="1">
         <f t="array" ref="J76">_xlfn.IFS(F76="Daily", I76,F76="Weekly", I76/7,F76="Biweekly", I76/15,F76="Monthly", I76/30,F76="Quarterly", I76/90,F76="Yearly", I76/365,F76="Ad-hoc", I76/365)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>192</v>
       </c>
@@ -3893,7 +3904,7 @@
         <v>111</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>42</v>
@@ -3906,14 +3917,14 @@
         <v>0</v>
       </c>
       <c r="I77" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" s="12" cm="1">
         <f t="array" ref="J77">_xlfn.IFS(F77="Daily", I77,F77="Weekly", I77/7,F77="Biweekly", I77/15,F77="Monthly", I77/30,F77="Quarterly", I77/90,F77="Yearly", I77/365,F77="Ad-hoc", I77/365)</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>192</v>
       </c>
@@ -3927,10 +3938,10 @@
         <v>111</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>32</v>
+        <v>114</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G78" s="11">
         <v>0</v>
@@ -3940,14 +3951,14 @@
         <v>0</v>
       </c>
       <c r="I78" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" s="12" cm="1">
         <f t="array" ref="J78">_xlfn.IFS(F78="Daily", I78,F78="Weekly", I78/7,F78="Biweekly", I78/15,F78="Monthly", I78/30,F78="Quarterly", I78/90,F78="Yearly", I78/365,F78="Ad-hoc", I78/365)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>192</v>
       </c>
@@ -3961,10 +3972,10 @@
         <v>111</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G79" s="11">
         <v>0</v>
@@ -3978,10 +3989,10 @@
       </c>
       <c r="J79" s="12" cm="1">
         <f t="array" ref="J79">_xlfn.IFS(F79="Daily", I79,F79="Weekly", I79/7,F79="Biweekly", I79/15,F79="Monthly", I79/30,F79="Quarterly", I79/90,F79="Yearly", I79/365,F79="Ad-hoc", I79/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>192</v>
       </c>
@@ -3995,7 +4006,7 @@
         <v>111</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>11</v>
@@ -4008,14 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I80" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J80" s="12" cm="1">
         <f t="array" ref="J80">_xlfn.IFS(F80="Daily", I80,F80="Weekly", I80/7,F80="Biweekly", I80/15,F80="Monthly", I80/30,F80="Quarterly", I80/90,F80="Yearly", I80/365,F80="Ad-hoc", I80/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>192</v>
       </c>
@@ -4029,10 +4040,10 @@
         <v>111</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G81" s="11">
         <v>0</v>
@@ -4042,14 +4053,14 @@
         <v>0</v>
       </c>
       <c r="I81" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J81" s="12" cm="1">
         <f t="array" ref="J81">_xlfn.IFS(F81="Daily", I81,F81="Weekly", I81/7,F81="Biweekly", I81/15,F81="Monthly", I81/30,F81="Quarterly", I81/90,F81="Yearly", I81/365,F81="Ad-hoc", I81/365)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>192</v>
       </c>
@@ -4063,10 +4074,10 @@
         <v>111</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G82" s="11">
         <v>0</v>
@@ -4080,10 +4091,10 @@
       </c>
       <c r="J82" s="12" cm="1">
         <f t="array" ref="J82">_xlfn.IFS(F82="Daily", I82,F82="Weekly", I82/7,F82="Biweekly", I82/15,F82="Monthly", I82/30,F82="Quarterly", I82/90,F82="Yearly", I82/365,F82="Ad-hoc", I82/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>192</v>
       </c>
@@ -4097,10 +4108,10 @@
         <v>111</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G83" s="11">
         <v>0</v>
@@ -4114,10 +4125,10 @@
       </c>
       <c r="J83" s="12" cm="1">
         <f t="array" ref="J83">_xlfn.IFS(F83="Daily", I83,F83="Weekly", I83/7,F83="Biweekly", I83/15,F83="Monthly", I83/30,F83="Quarterly", I83/90,F83="Yearly", I83/365,F83="Ad-hoc", I83/365)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>192</v>
       </c>
@@ -4131,10 +4142,10 @@
         <v>111</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G84" s="11">
         <v>0</v>
@@ -4144,14 +4155,14 @@
         <v>0</v>
       </c>
       <c r="I84" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J84" s="12" cm="1">
         <f t="array" ref="J84">_xlfn.IFS(F84="Daily", I84,F84="Weekly", I84/7,F84="Biweekly", I84/15,F84="Monthly", I84/30,F84="Quarterly", I84/90,F84="Yearly", I84/365,F84="Ad-hoc", I84/365)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>192</v>
       </c>
@@ -4165,7 +4176,7 @@
         <v>111</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>11</v>
@@ -4185,7 +4196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>192</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>111</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>11</v>
@@ -4219,7 +4230,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>192</v>
       </c>
@@ -4233,7 +4244,7 @@
         <v>111</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>11</v>
@@ -4253,7 +4264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>192</v>
       </c>
@@ -4267,10 +4278,10 @@
         <v>111</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G88" s="11">
         <v>0</v>
@@ -4280,14 +4291,14 @@
         <v>0</v>
       </c>
       <c r="I88" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J88" s="12" cm="1">
         <f t="array" ref="J88">_xlfn.IFS(F88="Daily", I88,F88="Weekly", I88/7,F88="Biweekly", I88/15,F88="Monthly", I88/30,F88="Quarterly", I88/90,F88="Yearly", I88/365,F88="Ad-hoc", I88/365)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>192</v>
       </c>
@@ -4301,10 +4312,10 @@
         <v>111</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>32</v>
+        <v>129</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G89" s="11">
         <v>0</v>
@@ -4318,10 +4329,10 @@
       </c>
       <c r="J89" s="12" cm="1">
         <f t="array" ref="J89">_xlfn.IFS(F89="Daily", I89,F89="Weekly", I89/7,F89="Biweekly", I89/15,F89="Monthly", I89/30,F89="Quarterly", I89/90,F89="Yearly", I89/365,F89="Ad-hoc", I89/365)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>192</v>
       </c>
@@ -4335,7 +4346,7 @@
         <v>111</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>32</v>
@@ -4355,7 +4366,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>192</v>
       </c>
@@ -4369,27 +4380,27 @@
         <v>111</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="5">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
       </c>
       <c r="H91" s="12" cm="1">
         <f t="array" ref="H91">_xlfn.IFS(F91="Daily", G91,F91="Weekly", G91/7,F91="Biweekly", G91/15,F91="Monthly", G91/30,F91="Quarterly", G91/90,F91="Yearly", G91/365,F91="Ad-hoc", G91/365)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="12" cm="1">
         <f t="array" ref="J91">_xlfn.IFS(F91="Daily", I91,F91="Weekly", I91/7,F91="Biweekly", I91/15,F91="Monthly", I91/30,F91="Quarterly", I91/90,F91="Yearly", I91/365,F91="Ad-hoc", I91/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>192</v>
       </c>
@@ -4403,27 +4414,27 @@
         <v>111</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>97</v>
+        <v>133</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="12" cm="1">
         <f t="array" ref="H92">_xlfn.IFS(F92="Daily", G92,F92="Weekly", G92/7,F92="Biweekly", G92/15,F92="Monthly", G92/30,F92="Quarterly", G92/90,F92="Yearly", G92/365,F92="Ad-hoc", G92/365)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J92" s="12" cm="1">
         <f t="array" ref="J92">_xlfn.IFS(F92="Daily", I92,F92="Weekly", I92/7,F92="Biweekly", I92/15,F92="Monthly", I92/30,F92="Quarterly", I92/90,F92="Yearly", I92/365,F92="Ad-hoc", I92/365)</f>
-        <v>2.1917808219178082E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>192</v>
       </c>
@@ -4437,10 +4448,10 @@
         <v>111</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>32</v>
+        <v>134</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
@@ -4450,14 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I93" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J93" s="12" cm="1">
         <f t="array" ref="J93">_xlfn.IFS(F93="Daily", I93,F93="Weekly", I93/7,F93="Biweekly", I93/15,F93="Monthly", I93/30,F93="Quarterly", I93/90,F93="Yearly", I93/365,F93="Ad-hoc", I93/365)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>192</v>
       </c>
@@ -4471,10 +4482,10 @@
         <v>111</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
@@ -4488,10 +4499,10 @@
       </c>
       <c r="J94" s="12" cm="1">
         <f t="array" ref="J94">_xlfn.IFS(F94="Daily", I94,F94="Weekly", I94/7,F94="Biweekly", I94/15,F94="Monthly", I94/30,F94="Quarterly", I94/90,F94="Yearly", I94/365,F94="Ad-hoc", I94/365)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>192</v>
       </c>
@@ -4505,7 +4516,7 @@
         <v>111</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>11</v>
@@ -4518,14 +4529,14 @@
         <v>0</v>
       </c>
       <c r="I95" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" s="12" cm="1">
         <f t="array" ref="J95">_xlfn.IFS(F95="Daily", I95,F95="Weekly", I95/7,F95="Biweekly", I95/15,F95="Monthly", I95/30,F95="Quarterly", I95/90,F95="Yearly", I95/365,F95="Ad-hoc", I95/365)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>192</v>
       </c>
@@ -4539,10 +4550,10 @@
         <v>111</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
@@ -4552,14 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I96" s="5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J96" s="12" cm="1">
         <f t="array" ref="J96">_xlfn.IFS(F96="Daily", I96,F96="Weekly", I96/7,F96="Biweekly", I96/15,F96="Monthly", I96/30,F96="Quarterly", I96/90,F96="Yearly", I96/365,F96="Ad-hoc", I96/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>192</v>
       </c>
@@ -4573,27 +4584,27 @@
         <v>111</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>42</v>
       </c>
       <c r="G97" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H97" s="12" cm="1">
         <f t="array" ref="H97">_xlfn.IFS(F97="Daily", G97,F97="Weekly", G97/7,F97="Biweekly", G97/15,F97="Monthly", G97/30,F97="Quarterly", G97/90,F97="Yearly", G97/365,F97="Ad-hoc", G97/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0.5</v>
       </c>
       <c r="J97" s="12" cm="1">
         <f t="array" ref="J97">_xlfn.IFS(F97="Daily", I97,F97="Weekly", I97/7,F97="Biweekly", I97/15,F97="Monthly", I97/30,F97="Quarterly", I97/90,F97="Yearly", I97/365,F97="Ad-hoc", I97/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>192</v>
       </c>
@@ -4607,7 +4618,7 @@
         <v>111</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>42</v>
@@ -4627,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>192</v>
       </c>
@@ -4641,17 +4652,17 @@
         <v>111</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G99" s="5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H99" s="12" cm="1">
         <f t="array" ref="H99">_xlfn.IFS(F99="Daily", G99,F99="Weekly", G99/7,F99="Biweekly", G99/15,F99="Monthly", G99/30,F99="Quarterly", G99/90,F99="Yearly", G99/365,F99="Ad-hoc", G99/365)</f>
-        <v>0.13333333333333333</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I99" s="11">
         <v>0</v>
@@ -4661,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>192</v>
       </c>
@@ -4675,17 +4686,17 @@
         <v>111</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G100" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" s="12" cm="1">
         <f t="array" ref="H100">_xlfn.IFS(F100="Daily", G100,F100="Weekly", G100/7,F100="Biweekly", G100/15,F100="Monthly", G100/30,F100="Quarterly", G100/90,F100="Yearly", G100/365,F100="Ad-hoc", G100/365)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I100" s="11">
         <v>0</v>
@@ -4695,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>192</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>111</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>32</v>
@@ -4729,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>192</v>
       </c>
@@ -4743,17 +4754,17 @@
         <v>111</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G102" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H102" s="12" cm="1">
         <f t="array" ref="H102">_xlfn.IFS(F102="Daily", G102,F102="Weekly", G102/7,F102="Biweekly", G102/15,F102="Monthly", G102/30,F102="Quarterly", G102/90,F102="Yearly", G102/365,F102="Ad-hoc", G102/365)</f>
-        <v>2.1917808219178082E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I102" s="11">
         <v>0</v>
@@ -4763,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>192</v>
       </c>
@@ -4777,17 +4788,17 @@
         <v>111</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="5">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H103" s="12" cm="1">
         <f t="array" ref="H103">_xlfn.IFS(F103="Daily", G103,F103="Weekly", G103/7,F103="Biweekly", G103/15,F103="Monthly", G103/30,F103="Quarterly", G103/90,F103="Yearly", G103/365,F103="Ad-hoc", G103/365)</f>
-        <v>1.3698630136986301E-3</v>
+        <v>2.1917808219178082E-2</v>
       </c>
       <c r="I103" s="11">
         <v>0</v>
@@ -4797,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>192</v>
       </c>
@@ -4811,17 +4822,17 @@
         <v>111</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H104" s="12" cm="1">
         <f t="array" ref="H104">_xlfn.IFS(F104="Daily", G104,F104="Weekly", G104/7,F104="Biweekly", G104/15,F104="Monthly", G104/30,F104="Quarterly", G104/90,F104="Yearly", G104/365,F104="Ad-hoc", G104/365)</f>
-        <v>5.4794520547945206E-3</v>
+        <v>1.3698630136986301E-3</v>
       </c>
       <c r="I104" s="11">
         <v>0</v>
@@ -4831,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>192</v>
       </c>
@@ -4845,17 +4856,17 @@
         <v>111</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>11</v>
+        <v>155</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G105" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" s="12" cm="1">
         <f t="array" ref="H105">_xlfn.IFS(F105="Daily", G105,F105="Weekly", G105/7,F105="Biweekly", G105/15,F105="Monthly", G105/30,F105="Quarterly", G105/90,F105="Yearly", G105/365,F105="Ad-hoc", G105/365)</f>
-        <v>1</v>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="I105" s="11">
         <v>0</v>
@@ -4865,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>192</v>
       </c>
@@ -4879,17 +4890,17 @@
         <v>111</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H106" s="12" cm="1">
         <f t="array" ref="H106">_xlfn.IFS(F106="Daily", G106,F106="Weekly", G106/7,F106="Biweekly", G106/15,F106="Monthly", G106/30,F106="Quarterly", G106/90,F106="Yearly", G106/365,F106="Ad-hoc", G106/365)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I106" s="11">
         <v>0</v>
@@ -4899,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>192</v>
       </c>
@@ -4913,7 +4924,7 @@
         <v>111</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>11</v>
@@ -4933,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>192</v>
       </c>
@@ -4947,7 +4958,7 @@
         <v>111</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>11</v>
@@ -4967,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>192</v>
       </c>
@@ -4981,7 +4992,7 @@
         <v>111</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>11</v>
@@ -5001,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>192</v>
       </c>
@@ -5015,17 +5026,17 @@
         <v>111</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>26</v>
+        <v>162</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G110" s="5">
         <v>0.5</v>
       </c>
       <c r="H110" s="12" cm="1">
         <f t="array" ref="H110">_xlfn.IFS(F110="Daily", G110,F110="Weekly", G110/7,F110="Biweekly", G110/15,F110="Monthly", G110/30,F110="Quarterly", G110/90,F110="Yearly", G110/365,F110="Ad-hoc", G110/365)</f>
-        <v>1.3698630136986301E-3</v>
+        <v>0.5</v>
       </c>
       <c r="I110" s="11">
         <v>0</v>
@@ -5035,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>192</v>
       </c>
@@ -5049,17 +5060,17 @@
         <v>111</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>97</v>
+        <v>163</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G111" s="5">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H111" s="12" cm="1">
         <f t="array" ref="H111">_xlfn.IFS(F111="Daily", G111,F111="Weekly", G111/7,F111="Biweekly", G111/15,F111="Monthly", G111/30,F111="Quarterly", G111/90,F111="Yearly", G111/365,F111="Ad-hoc", G111/365)</f>
-        <v>2.1917808219178082E-2</v>
+        <v>1.3698630136986301E-3</v>
       </c>
       <c r="I111" s="11">
         <v>0</v>
@@ -5069,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>192</v>
       </c>
@@ -5103,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>192</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>111</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>97</v>
@@ -5130,14 +5141,14 @@
         <v>2.1917808219178082E-2</v>
       </c>
       <c r="I113" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J113" s="12" cm="1">
         <f t="array" ref="J113">_xlfn.IFS(F113="Daily", I113,F113="Weekly", I113/7,F113="Biweekly", I113/15,F113="Monthly", I113/30,F113="Quarterly", I113/90,F113="Yearly", I113/365,F113="Ad-hoc", I113/365)</f>
-        <v>2.1917808219178082E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>192</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>97</v>
@@ -5171,41 +5182,41 @@
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G115" s="9">
-        <v>0</v>
+      <c r="D115" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G115" s="5">
+        <v>8</v>
       </c>
       <c r="H115" s="12" cm="1">
         <f t="array" ref="H115">_xlfn.IFS(F115="Daily", G115,F115="Weekly", G115/7,F115="Biweekly", G115/15,F115="Monthly", G115/30,F115="Quarterly", G115/90,F115="Yearly", G115/365,F115="Ad-hoc", G115/365)</f>
-        <v>0</v>
-      </c>
-      <c r="I115" s="1">
-        <v>6</v>
+        <v>2.1917808219178082E-2</v>
+      </c>
+      <c r="I115" s="11">
+        <v>8</v>
       </c>
       <c r="J115" s="12" cm="1">
         <f t="array" ref="J115">_xlfn.IFS(F115="Daily", I115,F115="Weekly", I115/7,F115="Biweekly", I115/15,F115="Monthly", I115/30,F115="Quarterly", I115/90,F115="Yearly", I115/365,F115="Ad-hoc", I115/365)</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>192</v>
       </c>
@@ -5219,7 +5230,7 @@
         <v>172</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>42</v>
@@ -5232,14 +5243,14 @@
         <v>0</v>
       </c>
       <c r="I116" s="1">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="J116" s="12" cm="1">
         <f t="array" ref="J116">_xlfn.IFS(F116="Daily", I116,F116="Weekly", I116/7,F116="Biweekly", I116/15,F116="Monthly", I116/30,F116="Quarterly", I116/90,F116="Yearly", I116/365,F116="Ad-hoc", I116/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>192</v>
       </c>
@@ -5253,7 +5264,7 @@
         <v>172</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>42</v>
@@ -5266,14 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I117" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J117" s="12" cm="1">
         <f t="array" ref="J117">_xlfn.IFS(F117="Daily", I117,F117="Weekly", I117/7,F117="Biweekly", I117/15,F117="Monthly", I117/30,F117="Quarterly", I117/90,F117="Yearly", I117/365,F117="Ad-hoc", I117/365)</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>192</v>
       </c>
@@ -5287,7 +5298,7 @@
         <v>172</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>42</v>
@@ -5300,14 +5311,14 @@
         <v>0</v>
       </c>
       <c r="I118" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J118" s="12" cm="1">
         <f t="array" ref="J118">_xlfn.IFS(F118="Daily", I118,F118="Weekly", I118/7,F118="Biweekly", I118/15,F118="Monthly", I118/30,F118="Quarterly", I118/90,F118="Yearly", I118/365,F118="Ad-hoc", I118/365)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>192</v>
       </c>
@@ -5321,27 +5332,27 @@
         <v>172</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G119" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119" s="12" cm="1">
         <f t="array" ref="H119">_xlfn.IFS(F119="Daily", G119,F119="Weekly", G119/7,F119="Biweekly", G119/15,F119="Monthly", G119/30,F119="Quarterly", G119/90,F119="Yearly", G119/365,F119="Ad-hoc", G119/365)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J119" s="12" cm="1">
         <f t="array" ref="J119">_xlfn.IFS(F119="Daily", I119,F119="Weekly", I119/7,F119="Biweekly", I119/15,F119="Monthly", I119/30,F119="Quarterly", I119/90,F119="Yearly", I119/365,F119="Ad-hoc", I119/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>192</v>
       </c>
@@ -5355,27 +5366,27 @@
         <v>172</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G120" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" s="12" cm="1">
         <f t="array" ref="H120">_xlfn.IFS(F120="Daily", G120,F120="Weekly", G120/7,F120="Biweekly", G120/15,F120="Monthly", G120/30,F120="Quarterly", G120/90,F120="Yearly", G120/365,F120="Ad-hoc", G120/365)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J120" s="12" cm="1">
         <f t="array" ref="J120">_xlfn.IFS(F120="Daily", I120,F120="Weekly", I120/7,F120="Biweekly", I120/15,F120="Monthly", I120/30,F120="Quarterly", I120/90,F120="Yearly", I120/365,F120="Ad-hoc", I120/365)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>192</v>
       </c>
@@ -5389,27 +5400,27 @@
         <v>172</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G121" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="12" cm="1">
         <f t="array" ref="H121">_xlfn.IFS(F121="Daily", G121,F121="Weekly", G121/7,F121="Biweekly", G121/15,F121="Monthly", G121/30,F121="Quarterly", G121/90,F121="Yearly", G121/365,F121="Ad-hoc", G121/365)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J121" s="12" cm="1">
         <f t="array" ref="J121">_xlfn.IFS(F121="Daily", I121,F121="Weekly", I121/7,F121="Biweekly", I121/15,F121="Monthly", I121/30,F121="Quarterly", I121/90,F121="Yearly", I121/365,F121="Ad-hoc", I121/365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>192</v>
       </c>
@@ -5423,27 +5434,27 @@
         <v>172</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G122" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="12" cm="1">
         <f t="array" ref="H122">_xlfn.IFS(F122="Daily", G122,F122="Weekly", G122/7,F122="Biweekly", G122/15,F122="Monthly", G122/30,F122="Quarterly", G122/90,F122="Yearly", G122/365,F122="Ad-hoc", G122/365)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J122" s="12" cm="1">
         <f t="array" ref="J122">_xlfn.IFS(F122="Daily", I122,F122="Weekly", I122/7,F122="Biweekly", I122/15,F122="Monthly", I122/30,F122="Quarterly", I122/90,F122="Yearly", I122/365,F122="Ad-hoc", I122/365)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>192</v>
       </c>
@@ -5456,42 +5467,42 @@
       <c r="D123" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>11</v>
+      <c r="E123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G123" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123" s="12" cm="1">
         <f t="array" ref="H123">_xlfn.IFS(F123="Daily", G123,F123="Weekly", G123/7,F123="Biweekly", G123/15,F123="Monthly", G123/30,F123="Quarterly", G123/90,F123="Yearly", G123/365,F123="Ad-hoc", G123/365)</f>
-        <v>2</v>
-      </c>
-      <c r="I123" s="9">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.5</v>
       </c>
       <c r="J123" s="12" cm="1">
         <f t="array" ref="J123">_xlfn.IFS(F123="Daily", I123,F123="Weekly", I123/7,F123="Biweekly", I123/15,F123="Monthly", I123/30,F123="Quarterly", I123/90,F123="Yearly", I123/365,F123="Ad-hoc", I123/365)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>11</v>
@@ -5503,12 +5514,15 @@
         <f t="array" ref="H124">_xlfn.IFS(F124="Daily", G124,F124="Weekly", G124/7,F124="Biweekly", G124/15,F124="Monthly", G124/30,F124="Quarterly", G124/90,F124="Yearly", G124/365,F124="Ad-hoc", G124/365)</f>
         <v>2</v>
       </c>
+      <c r="I124" s="9">
+        <v>26</v>
+      </c>
       <c r="J124" s="12" cm="1">
         <f t="array" ref="J124">_xlfn.IFS(F124="Daily", I124,F124="Weekly", I124/7,F124="Biweekly", I124/15,F124="Monthly", I124/30,F124="Quarterly", I124/90,F124="Yearly", I124/365,F124="Ad-hoc", I124/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>192</v>
       </c>
@@ -5521,8 +5535,8 @@
       <c r="D125" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>195</v>
+      <c r="E125" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>11</v>
@@ -5534,15 +5548,12 @@
         <f t="array" ref="H125">_xlfn.IFS(F125="Daily", G125,F125="Weekly", G125/7,F125="Biweekly", G125/15,F125="Monthly", G125/30,F125="Quarterly", G125/90,F125="Yearly", G125/365,F125="Ad-hoc", G125/365)</f>
         <v>2</v>
       </c>
-      <c r="I125" s="9">
-        <v>25</v>
-      </c>
       <c r="J125" s="12" cm="1">
         <f t="array" ref="J125">_xlfn.IFS(F125="Daily", I125,F125="Weekly", I125/7,F125="Biweekly", I125/15,F125="Monthly", I125/30,F125="Quarterly", I125/90,F125="Yearly", I125/365,F125="Ad-hoc", I125/365)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>192</v>
       </c>
@@ -5555,26 +5566,28 @@
       <c r="D126" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>196</v>
+      <c r="E126" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G126" s="9">
         <v>2</v>
       </c>
       <c r="H126" s="12" cm="1">
         <f t="array" ref="H126">_xlfn.IFS(F126="Daily", G126,F126="Weekly", G126/7,F126="Biweekly", G126/15,F126="Monthly", G126/30,F126="Quarterly", G126/90,F126="Yearly", G126/365,F126="Ad-hoc", G126/365)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I126" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="I126" s="9">
+        <v>25</v>
+      </c>
       <c r="J126" s="12" cm="1">
         <f t="array" ref="J126">_xlfn.IFS(F126="Daily", I126,F126="Weekly", I126/7,F126="Biweekly", I126/15,F126="Monthly", I126/30,F126="Quarterly", I126/90,F126="Yearly", I126/365,F126="Ad-hoc", I126/365)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>192</v>
       </c>
@@ -5588,17 +5601,17 @@
         <v>111</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G127" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H127" s="12" cm="1">
         <f t="array" ref="H127">_xlfn.IFS(F127="Daily", G127,F127="Weekly", G127/7,F127="Biweekly", G127/15,F127="Monthly", G127/30,F127="Quarterly", G127/90,F127="Yearly", G127/365,F127="Ad-hoc", G127/365)</f>
-        <v>0.13698630136986301</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="12" cm="1">
@@ -5606,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>192</v>
       </c>
@@ -5620,17 +5633,17 @@
         <v>111</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G128" s="9">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H128" s="12" cm="1">
         <f t="array" ref="H128">_xlfn.IFS(F128="Daily", G128,F128="Weekly", G128/7,F128="Biweekly", G128/15,F128="Monthly", G128/30,F128="Quarterly", G128/90,F128="Yearly", G128/365,F128="Ad-hoc", G128/365)</f>
-        <v>4</v>
+        <v>0.13698630136986301</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="12" cm="1">
@@ -5638,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>192</v>
       </c>
@@ -5652,17 +5665,17 @@
         <v>111</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G129" s="9">
         <v>4</v>
       </c>
       <c r="H129" s="12" cm="1">
         <f t="array" ref="H129">_xlfn.IFS(F129="Daily", G129,F129="Weekly", G129/7,F129="Biweekly", G129/15,F129="Monthly", G129/30,F129="Quarterly", G129/90,F129="Yearly", G129/365,F129="Ad-hoc", G129/365)</f>
-        <v>1.0958904109589041E-2</v>
+        <v>4</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="12" cm="1">
@@ -5670,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>192</v>
       </c>
@@ -5684,17 +5697,17 @@
         <v>111</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G130" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H130" s="12" cm="1">
         <f t="array" ref="H130">_xlfn.IFS(F130="Daily", G130,F130="Weekly", G130/7,F130="Biweekly", G130/15,F130="Monthly", G130/30,F130="Quarterly", G130/90,F130="Yearly", G130/365,F130="Ad-hoc", G130/365)</f>
-        <v>0.14285714285714285</v>
+        <v>1.0958904109589041E-2</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="12" cm="1">
@@ -5702,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>192</v>
       </c>
@@ -5716,17 +5729,17 @@
         <v>111</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G131" s="9">
         <v>1</v>
       </c>
       <c r="H131" s="12" cm="1">
         <f t="array" ref="H131">_xlfn.IFS(F131="Daily", G131,F131="Weekly", G131/7,F131="Biweekly", G131/15,F131="Monthly", G131/30,F131="Quarterly", G131/90,F131="Yearly", G131/365,F131="Ad-hoc", G131/365)</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="12" cm="1">
@@ -5734,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -5748,17 +5761,17 @@
         <v>111</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G132" s="9">
         <v>1</v>
       </c>
       <c r="H132" s="12" cm="1">
         <f t="array" ref="H132">_xlfn.IFS(F132="Daily", G132,F132="Weekly", G132/7,F132="Biweekly", G132/15,F132="Monthly", G132/30,F132="Quarterly", G132/90,F132="Yearly", G132/365,F132="Ad-hoc", G132/365)</f>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="12" cm="1">
@@ -5766,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>192</v>
       </c>
@@ -5780,17 +5793,17 @@
         <v>111</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="G133" s="9">
         <v>1</v>
       </c>
       <c r="H133" s="12" cm="1">
         <f t="array" ref="H133">_xlfn.IFS(F133="Daily", G133,F133="Weekly", G133/7,F133="Biweekly", G133/15,F133="Monthly", G133/30,F133="Quarterly", G133/90,F133="Yearly", G133/365,F133="Ad-hoc", G133/365)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="12" cm="1">
@@ -5798,41 +5811,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="2">
-        <v>16</v>
+        <v>192</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
       </c>
       <c r="H134" s="12" cm="1">
         <f t="array" ref="H134">_xlfn.IFS(F134="Daily", G134,F134="Weekly", G134/7,F134="Biweekly", G134/15,F134="Monthly", G134/30,F134="Quarterly", G134/90,F134="Yearly", G134/365,F134="Ad-hoc", G134/365)</f>
-        <v>16</v>
-      </c>
-      <c r="I134" s="9">
-        <v>80</v>
-      </c>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I134" s="9"/>
       <c r="J134" s="12" cm="1">
         <f t="array" ref="J134">_xlfn.IFS(F134="Daily", I134,F134="Weekly", I134/7,F134="Biweekly", I134/15,F134="Monthly", I134/30,F134="Quarterly", I134/90,F134="Yearly", I134/365,F134="Ad-hoc", I134/365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="2">
+        <v>16</v>
+      </c>
+      <c r="H135" s="12" cm="1">
+        <f t="array" ref="H135">_xlfn.IFS(F135="Daily", G135,F135="Weekly", G135/7,F135="Biweekly", G135/15,F135="Monthly", G135/30,F135="Quarterly", G135/90,F135="Yearly", G135/365,F135="Ad-hoc", G135/365)</f>
+        <v>16</v>
+      </c>
+      <c r="I135" s="9">
         <v>80</v>
       </c>
+      <c r="J135" s="12" cm="1">
+        <f t="array" ref="J135">_xlfn.IFS(F135="Daily", I135,F135="Weekly", I135/7,F135="Biweekly", I135/15,F135="Monthly", I135/30,F135="Quarterly", I135/90,F135="Yearly", I135/365,F135="Ad-hoc", I135/365)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J136" xr:uid="{31C3382C-D76B-4359-941B-F04072ED8828}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ZG"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="OTID"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Operational Activity (Incidents/Request)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
